--- a/ProductCentralProject-QA-Regression/testdata.xlsx
+++ b/ProductCentralProject-QA-Regression/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="5280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="178">
   <si>
     <t>homepageURL</t>
   </si>
@@ -549,6 +549,9 @@
   </si>
   <si>
     <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/products/change-navigator.html</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/us/en/security.html</t>
   </si>
 </sst>
 </file>
@@ -918,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,6 +1304,11 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
